--- a/src/main/resources/templet/upload/supplier.xlsx
+++ b/src/main/resources/templet/upload/supplier.xlsx
@@ -28,9 +28,6 @@
     <t>电话</t>
   </si>
   <si>
-    <t>银行账户</t>
-  </si>
-  <si>
     <t>银行账号</t>
   </si>
   <si>
@@ -47,6 +44,10 @@
   </si>
   <si>
     <t>资料上传</t>
+  </si>
+  <si>
+    <t>开户行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -370,7 +371,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -392,25 +393,25 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
